--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1006,16 +1006,16 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1024,22 +1024,22 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>23</v>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>34</v>
@@ -1079,10 +1079,10 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1176,16 +1176,16 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1204,10 +1204,10 @@
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1405,13 +1405,13 @@
         <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
         <v>5.2</v>
@@ -1449,7 +1449,7 @@
         <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>37</v>
@@ -1470,10 +1470,10 @@
         <v>7.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
         <v>120</v>
@@ -1482,10 +1482,10 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>16.5</v>
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1554,10 +1554,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1566,10 +1566,10 @@
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>5.5</v>
@@ -1578,10 +1578,10 @@
         <v>1.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>2.5</v>
@@ -1599,7 +1599,7 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
@@ -1608,10 +1608,10 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
@@ -1623,13 +1623,13 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
@@ -1641,10 +1641,10 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2684,22 +2684,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2714,16 +2714,16 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U16" t="n">
         <v>1.36</v>
@@ -2732,10 +2732,10 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y16" t="n">
         <v>7.5</v>
@@ -2747,7 +2747,7 @@
         <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
@@ -2768,13 +2768,13 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2783,7 +2783,7 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO16" t="n">
         <v>41</v>
@@ -3719,22 +3719,22 @@
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.5</v>
@@ -4227,10 +4227,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
         <v>2.5</v>
@@ -4304,10 +4304,10 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -976,64 +976,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
         <v>2.25</v>
       </c>
-      <c r="W4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X4" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1048,16 +1048,16 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
@@ -1070,19 +1070,19 @@
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
         <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>2.25</v>
@@ -1170,7 +1170,7 @@
         <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1222,10 +1222,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1425,10 +1425,10 @@
         <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1452,16 +1452,16 @@
         <v>5.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>37</v>
@@ -1470,7 +1470,7 @@
         <v>7.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG7" t="n">
         <v>19.5</v>
@@ -1491,7 +1491,7 @@
         <v>16.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
         <v>60</v>
@@ -1536,34 +1536,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>2.6</v>
@@ -1578,7 +1578,7 @@
         <v>1.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
         <v>2.25</v>
@@ -1587,19 +1587,19 @@
         <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
@@ -1614,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1623,28 +1623,28 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
         <v>51</v>
       </c>
       <c r="AO8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1705,16 +1705,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
@@ -1855,7 +1855,7 @@
         <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>5.5</v>
@@ -1927,16 +1927,16 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +2004,7 @@
         <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
         <v>5.5</v>
@@ -2076,10 +2076,10 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AR11" t="n">
         <v>4.5</v>
@@ -2168,7 +2168,7 @@
         <v>3.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>2.5</v>
@@ -2587,10 +2587,10 @@
         <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y15" t="n">
         <v>7.5</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
@@ -2702,10 +2702,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2714,10 +2714,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -2732,16 +2732,16 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y16" t="n">
         <v>7.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2768,16 +2768,16 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
@@ -2850,7 +2850,7 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
         <v>1.13</v>
@@ -2865,10 +2865,10 @@
         <v>2.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>1.25</v>
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2998,34 +2998,34 @@
         <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.44</v>
       </c>
-      <c r="R18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
@@ -3040,25 +3040,25 @@
         <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -3073,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L19" t="n">
         <v>2.75</v>
@@ -3140,25 +3140,25 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.53</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3226,10 +3226,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="20">
@@ -3443,10 +3443,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S21" t="n">
         <v>3.25</v>
@@ -3713,10 +3713,10 @@
         <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3725,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3882,7 +3882,7 @@
         <v>1.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V24" t="n">
         <v>2.5</v>
@@ -3984,41 +3984,111 @@
           <t>Nong Bua Pitchaya</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>30</v>
+      </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
@@ -4056,13 +4126,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -4098,10 +4168,10 @@
         <v>1.29</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W26" t="n">
         <v>1.8</v>
@@ -4110,7 +4180,7 @@
         <v>1.91</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -4146,7 +4216,7 @@
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>9.5</v>
@@ -4155,7 +4225,7 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>29</v>
@@ -4239,7 +4309,7 @@
         <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V27" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -994,10 +994,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1018,19 +1018,19 @@
         <v>1.13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>2.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1042,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -1161,7 +1161,7 @@
         <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>2.25</v>
@@ -1170,7 +1170,7 @@
         <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1222,10 +1222,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
@@ -1449,7 +1449,7 @@
         <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z7" t="n">
         <v>6.9</v>
@@ -1464,7 +1464,7 @@
         <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
         <v>7.6</v>
@@ -1482,13 +1482,13 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
@@ -1578,7 +1578,7 @@
         <v>1.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
         <v>2.25</v>
@@ -1587,7 +1587,7 @@
         <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.75</v>
@@ -1641,10 +1641,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1711,10 +1711,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.63</v>
@@ -1840,10 +1840,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1873,7 +1873,7 @@
         <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -1927,10 +1927,10 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR10" t="n">
         <v>4.3</v>
@@ -1971,28 +1971,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -2022,19 +2022,19 @@
         <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>34</v>
@@ -2049,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>81</v>
@@ -2061,25 +2061,25 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR11" t="n">
         <v>4.5</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
         <v>2.4</v>
@@ -2569,7 +2569,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -2690,7 +2690,7 @@
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J16" t="n">
         <v>2.25</v>
@@ -2732,10 +2732,10 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y16" t="n">
         <v>7.5</v>
@@ -2756,10 +2756,10 @@
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -2832,19 +2832,19 @@
         <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2853,16 +2853,16 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -2871,16 +2871,16 @@
         <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y17" t="n">
         <v>19</v>
@@ -2898,13 +2898,13 @@
         <v>29</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2913,16 +2913,16 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
@@ -2986,10 +2986,10 @@
         <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3040,7 +3040,7 @@
         <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
         <v>29</v>
@@ -3058,7 +3058,7 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -3131,7 +3131,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
         <v>2.75</v>
@@ -3226,10 +3226,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3443,10 +3443,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
         <v>3.25</v>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
@@ -3861,13 +3861,13 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.35</v>
@@ -3882,7 +3882,7 @@
         <v>1.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
         <v>2.5</v>
@@ -3894,7 +3894,7 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>6.5</v>
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3912,13 +3912,13 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
@@ -3933,7 +3933,7 @@
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>67</v>
@@ -4168,10 +4168,10 @@
         <v>1.29</v>
       </c>
       <c r="U26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
         <v>1.8</v>
@@ -4309,7 +4309,7 @@
         <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V27" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -881,22 +881,22 @@
         <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -918,16 +918,16 @@
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>41</v>
@@ -1408,13 +1408,13 @@
         <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1425,10 +1425,10 @@
         <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1446,10 +1446,10 @@
         <v>2.05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z7" t="n">
         <v>6.9</v>
@@ -1461,13 +1461,13 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF7" t="n">
         <v>6.7</v>
@@ -1482,16 +1482,16 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
         <v>60</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>2.63</v>
@@ -1840,10 +1840,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1855,7 +1855,7 @@
         <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>5.5</v>
@@ -1873,7 +1873,7 @@
         <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -1912,7 +1912,7 @@
         <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>17</v>
@@ -2004,7 +2004,7 @@
         <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>5.5</v>
@@ -2022,7 +2022,7 @@
         <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -2076,13 +2076,13 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AS11" t="n">
         <v>1.21</v>
@@ -2132,7 +2132,7 @@
         <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>3.4</v>
@@ -2150,25 +2150,25 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>2.5</v>
@@ -2180,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2207,16 +2207,16 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>21</v>
@@ -2227,10 +2227,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13">
@@ -2274,24 +2274,24 @@
         <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
         <v>1.7</v>
@@ -2309,16 +2309,16 @@
         <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>8.75</v>
@@ -2327,43 +2327,43 @@
         <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG13" t="n">
         <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2402,22 +2402,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="J14" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2425,7 +2425,7 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q14" t="n">
         <v>1.93</v>
@@ -2449,34 +2449,34 @@
         <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE14" t="n">
         <v>8.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>65</v>
@@ -2485,22 +2485,22 @@
         <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -2557,10 +2557,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2569,7 +2569,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -2581,16 +2581,16 @@
         <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
         <v>7.5</v>
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>26</v>
@@ -2626,7 +2626,7 @@
         <v>301</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -2714,10 +2714,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -2853,16 +2853,16 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
@@ -2913,13 +2913,13 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>9</v>
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2992,34 +2992,34 @@
         <v>2.05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3028,10 +3028,10 @@
         <v>2.63</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
         <v>15</v>
@@ -3046,10 +3046,10 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3058,10 +3058,10 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>11</v>
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3155,10 +3155,10 @@
         <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3167,10 +3167,10 @@
         <v>3.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
@@ -3179,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3191,10 +3191,10 @@
         <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3221,15 +3221,15 @@
         <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="20">
@@ -3264,16 +3264,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
@@ -3294,10 +3294,10 @@
         <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S20" t="n">
         <v>2.63</v>
@@ -3333,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3351,13 +3351,13 @@
         <v>126</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>2.63</v>
@@ -3431,43 +3431,43 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
         <v>15</v>
@@ -3479,28 +3479,28 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3575,13 +3575,13 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3861,7 +3861,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3912,7 +3912,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -3933,7 +3933,7 @@
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>67</v>
@@ -3985,22 +3985,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K25" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4009,10 +4009,10 @@
         <v>8.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q25" t="n">
         <v>1.6</v>
@@ -4030,7 +4030,7 @@
         <v>1.32</v>
       </c>
       <c r="V25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W25" t="n">
         <v>1.57</v>
@@ -4039,16 +4039,16 @@
         <v>2.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -4060,7 +4060,7 @@
         <v>8.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -4072,19 +4072,19 @@
         <v>250</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
         <v>30</v>
@@ -4144,16 +4144,16 @@
         <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -701,7 +701,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -979,55 +979,55 @@
         <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
@@ -1042,22 +1042,22 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
@@ -1067,13 +1067,13 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1402,19 +1402,19 @@
         <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1422,13 +1422,13 @@
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1443,7 +1443,7 @@
         <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="X7" t="n">
         <v>1.6</v>
@@ -1452,7 +1452,7 @@
         <v>5.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
@@ -1461,7 +1461,7 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>37</v>
@@ -1470,10 +1470,10 @@
         <v>7.7</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>120</v>
@@ -1482,22 +1482,22 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
         <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1566,16 +1566,16 @@
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1641,10 +1641,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1927,10 +1927,10 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AR10" t="n">
         <v>4.3</v>
@@ -1983,16 +1983,16 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -2070,16 +2070,16 @@
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR11" t="n">
         <v>4.4</v>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2162,10 +2162,10 @@
         <v>1.53</v>
       </c>
       <c r="U12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2174,7 +2174,7 @@
         <v>2.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -2183,10 +2183,10 @@
         <v>9.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
@@ -2219,7 +2219,7 @@
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2227,10 +2227,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="13">
@@ -2265,30 +2265,30 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q13" t="n">
         <v>1.93</v>
@@ -2309,34 +2309,34 @@
         <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>8.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>13.5</v>
@@ -2348,22 +2348,22 @@
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2684,19 +2684,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>5.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -2708,37 +2708,37 @@
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X16" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
         <v>8</v>
@@ -2747,7 +2747,7 @@
         <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
@@ -2756,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
@@ -2768,7 +2768,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -2835,7 +2835,7 @@
         <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2871,7 +2871,7 @@
         <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
@@ -2980,7 +2980,7 @@
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2995,7 +2995,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3016,7 +3016,7 @@
         <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V18" t="n">
         <v>4.33</v>
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3134,7 +3134,7 @@
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3161,7 +3161,7 @@
         <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V19" t="n">
         <v>3.5</v>
@@ -3179,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3437,10 +3437,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.08</v>
@@ -3449,10 +3449,10 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3578,10 +3578,10 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -3698,19 +3698,19 @@
         <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3725,16 +3725,16 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U23" t="n">
         <v>1.5</v>
@@ -3749,7 +3749,7 @@
         <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3767,13 +3767,13 @@
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
         <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>51</v>
@@ -3782,7 +3782,7 @@
         <v>351</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -3794,7 +3794,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>34</v>
@@ -3840,61 +3840,61 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
         <v>6</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z24" t="n">
         <v>6.5</v>
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3912,7 +3912,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -3927,13 +3927,13 @@
         <v>351</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>67</v>
@@ -3945,10 +3945,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3988,91 +3988,91 @@
         <v>1.78</v>
       </c>
       <c r="H25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.8</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J25" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="S25" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="V25" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
         <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
         <v>250</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>25</v>
@@ -4081,13 +4081,13 @@
         <v>13</v>
       </c>
       <c r="AM25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -707,7 +707,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -740,10 +740,10 @@
         <v>3.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
         <v>7.5</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -848,19 +848,19 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.75</v>
@@ -869,10 +869,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -890,16 +890,16 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -994,10 +994,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.07</v>
@@ -1306,22 +1306,22 @@
         <v>2.37</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1330,13 +1330,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>150</v>
@@ -1345,7 +1345,7 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>35</v>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q7" t="n">
         <v>2.22</v>
@@ -1431,7 +1431,7 @@
         <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.19</v>
@@ -1440,7 +1440,7 @@
         <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.02</v>
@@ -1449,22 +1449,22 @@
         <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1476,28 +1476,28 @@
         <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK7" t="n">
         <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1641,10 +1641,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1711,10 +1711,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
@@ -1927,13 +1927,13 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AS10" t="n">
         <v>1.22</v>
@@ -1971,34 +1971,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.7</v>
@@ -2007,10 +2007,10 @@
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
@@ -2028,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2040,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>81</v>
@@ -2064,28 +2064,28 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -2141,25 +2141,25 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
         <v>1.3</v>
@@ -2227,10 +2227,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
         <v>3.6</v>
@@ -2285,85 +2285,85 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>8.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2402,22 +2402,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
         <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2440,10 +2440,10 @@
         <v>1.26</v>
       </c>
       <c r="U14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W14" t="n">
         <v>1.72</v>
@@ -2452,19 +2452,19 @@
         <v>1.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="n">
         <v>30</v>
@@ -2485,19 +2485,19 @@
         <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>35</v>
@@ -2539,13 +2539,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2563,13 +2563,13 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
         <v>2.1</v>
@@ -2587,16 +2587,16 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
@@ -2614,16 +2614,16 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -2632,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -2847,10 +2847,10 @@
         <v>2.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
@@ -2859,10 +2859,10 @@
         <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -2974,28 +2974,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3004,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.83</v>
@@ -3034,7 +3034,7 @@
         <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3046,10 +3046,10 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3070,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
         <v>11</v>
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3179,10 +3179,10 @@
         <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>21</v>
@@ -3206,7 +3206,7 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3215,10 +3215,10 @@
         <v>9.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
@@ -3264,13 +3264,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.75</v>
       </c>
       <c r="J20" t="n">
         <v>2.75</v>
@@ -3285,7 +3285,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -3294,10 +3294,10 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>2.75</v>
@@ -3327,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
@@ -3369,10 +3369,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3437,22 +3437,22 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3554,16 +3554,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -3572,10 +3572,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3584,10 +3584,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3626,10 +3626,10 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3641,7 +3641,7 @@
         <v>301</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -3858,10 +3858,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3945,10 +3945,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3988,43 +3988,43 @@
         <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="n">
         <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="S25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U25" t="n">
         <v>1.28</v>
@@ -4036,31 +4036,31 @@
         <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
         <v>10.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -4072,10 +4072,10 @@
         <v>250</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
         <v>13</v>
@@ -4084,10 +4084,10 @@
         <v>55</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4126,28 +4126,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -4180,7 +4180,7 @@
         <v>1.83</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -4189,10 +4189,10 @@
         <v>12</v>
       </c>
       <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
         <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>26</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
@@ -4213,16 +4213,16 @@
         <v>301</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L27" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4291,10 +4291,10 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.6</v>
@@ -4303,10 +4303,10 @@
         <v>2.3</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U27" t="n">
         <v>1.3</v>
@@ -4315,25 +4315,25 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
         <v>13</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
       </c>
       <c r="AD27" t="n">
         <v>21</v>
@@ -4342,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG27" t="n">
         <v>13</v>
@@ -4351,22 +4351,22 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4374,10 +4374,10 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -839,16 +839,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -857,16 +857,16 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -875,19 +875,19 @@
         <v>1.17</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -899,22 +899,22 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="n">
@@ -924,22 +924,22 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO3" t="n">
         <v>41</v>
       </c>
-      <c r="AO3" t="n">
-        <v>51</v>
-      </c>
       <c r="AP3" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -991,13 +991,13 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1036,7 +1036,7 @@
         <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -1048,23 +1048,23 @@
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>101</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1119,40 +1119,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>5.5</v>
@@ -1179,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1191,7 +1191,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1213,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1222,10 +1222,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1399,105 +1399,109 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>5.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.6</v>
+      </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI7" t="n">
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1560,10 +1564,10 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>2.6</v>
@@ -1641,10 +1645,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1705,22 +1709,22 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U9" t="n">
         <v>1.44</v>
@@ -1822,19 +1826,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
@@ -1846,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>5.5</v>
@@ -1864,10 +1868,10 @@
         <v>1.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
         <v>2.25</v>
@@ -1876,7 +1880,7 @@
         <v>1.57</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>7.5</v>
@@ -1888,16 +1892,16 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1909,10 +1913,10 @@
         <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>17</v>
@@ -1927,10 +1931,10 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR10" t="n">
         <v>4.4</v>
@@ -1971,16 +1975,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K11" t="n">
         <v>1.83</v>
@@ -1995,46 +1999,46 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.62</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
         <v>34</v>
@@ -2043,7 +2047,7 @@
         <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2058,7 +2062,7 @@
         <v>451</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2082,10 +2086,10 @@
         <v>1.78</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="12">
@@ -2120,19 +2124,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>3.25</v>
@@ -2141,25 +2145,25 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.3</v>
@@ -2168,10 +2172,10 @@
         <v>3.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2183,7 +2187,7 @@
         <v>9.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>17</v>
@@ -2192,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>7.5</v>
@@ -2204,10 +2208,10 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2227,10 +2231,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
@@ -2265,48 +2269,48 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="W13" t="n">
         <v>1.65</v>
@@ -2315,28 +2319,28 @@
         <v>1.98</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA13" t="n">
         <v>8.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
         <v>18</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2345,25 +2349,25 @@
         <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2402,22 +2406,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="n">
         <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2449,34 +2453,34 @@
         <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
         <v>8.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>65</v>
@@ -2488,16 +2492,16 @@
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>35</v>
@@ -2569,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>2.1</v>
@@ -2829,7 +2833,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -2847,28 +2851,28 @@
         <v>2.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>1.22</v>
@@ -2892,7 +2896,7 @@
         <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
         <v>29</v>
@@ -2907,19 +2911,19 @@
         <v>9.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
         <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>9</v>
@@ -2974,13 +2978,13 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.75</v>
-      </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -2989,13 +2993,13 @@
         <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3004,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
         <v>3.4</v>
@@ -3028,13 +3032,13 @@
         <v>2.63</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3046,7 +3050,7 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3067,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM18" t="n">
         <v>13</v>
@@ -3119,16 +3123,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
@@ -3149,10 +3153,10 @@
         <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="n">
         <v>2.2</v>
@@ -3176,7 +3180,7 @@
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3185,10 +3189,10 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
         <v>21</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3212,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
@@ -3276,34 +3280,34 @@
         <v>2.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U20" t="n">
         <v>1.36</v>
@@ -3336,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3354,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>12</v>
@@ -3369,10 +3373,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3554,28 +3558,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3584,10 +3588,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3602,13 +3606,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -3638,7 +3642,7 @@
         <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -3647,7 +3651,7 @@
         <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -3695,40 +3699,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3737,19 +3741,19 @@
         <v>1.22</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3767,22 +3771,22 @@
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -3794,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>34</v>
@@ -3843,10 +3847,10 @@
         <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
         <v>2.4</v>
@@ -3858,10 +3862,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3870,10 +3874,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -3894,7 +3898,7 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>7</v>
@@ -3912,10 +3916,10 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF24" t="n">
         <v>7</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6.5</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -3927,28 +3931,28 @@
         <v>351</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3985,46 +3989,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
         <v>1.28</v>
@@ -4039,52 +4043,52 @@
         <v>2.32</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA25" t="n">
         <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="n">
         <v>250</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
         <v>30</v>
@@ -4126,13 +4130,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -4183,10 +4187,10 @@
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -4210,7 +4214,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -4225,7 +4229,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>34</v>
@@ -4267,22 +4271,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4303,10 +4307,10 @@
         <v>2.3</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U27" t="n">
         <v>1.3</v>
@@ -4315,22 +4319,22 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
         <v>13</v>
@@ -4342,13 +4346,13 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>126</v>
@@ -4357,27 +4361,27 @@
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
       </c>
       <c r="AN27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO27" t="n">
         <v>29</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>34</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -701,7 +701,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -734,16 +734,16 @@
         <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
         <v>7.5</v>
@@ -752,7 +752,7 @@
         <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
         <v>10</v>
@@ -764,10 +764,10 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -842,7 +842,7 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -916,7 +916,9 @@
       <c r="AH3" t="n">
         <v>67</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>501</v>
+      </c>
       <c r="AJ3" t="n">
         <v>8</v>
       </c>
@@ -976,19 +978,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
@@ -1000,37 +1002,37 @@
         <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1048,26 +1050,26 @@
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>101</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1076,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="AO4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP4" t="n">
         <v>2.05</v>
@@ -1125,10 +1127,10 @@
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1161,10 +1163,10 @@
         <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>2.25</v>
@@ -1194,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1222,10 +1224,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1262,105 +1264,105 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.05</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.15</v>
-      </c>
       <c r="X6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>37</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="n">
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1399,22 +1401,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="K7" t="n">
         <v>1.88</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1447,37 +1449,37 @@
         <v>2.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
       </c>
       <c r="AE7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6.3</v>
       </c>
-      <c r="AF7" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>150</v>
@@ -1492,16 +1494,16 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1546,7 +1548,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.4</v>
@@ -1564,10 +1566,10 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.6</v>
@@ -1594,7 +1596,7 @@
         <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
         <v>6.5</v>
@@ -1606,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1618,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1633,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>67</v>
@@ -1645,10 +1647,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1685,28 +1687,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1733,22 +1735,22 @@
         <v>2.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>26</v>
@@ -1772,16 +1774,16 @@
         <v>351</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -1829,7 +1831,7 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1850,16 +1852,16 @@
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>5.5</v>
@@ -1898,7 +1900,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
@@ -1913,7 +1915,7 @@
         <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -1931,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR10" t="n">
         <v>4.4</v>
@@ -1978,25 +1980,25 @@
         <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
         <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
@@ -2005,10 +2007,10 @@
         <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
         <v>6.5</v>
@@ -2023,13 +2025,13 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -2086,10 +2088,10 @@
         <v>1.78</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -2124,58 +2126,58 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2.38</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2184,19 +2186,19 @@
         <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>7.5</v>
@@ -2208,19 +2210,19 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>21</v>
@@ -2231,10 +2233,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="13">
@@ -2406,102 +2408,102 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>8.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
         <v>35</v>
@@ -2543,13 +2545,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2567,16 +2569,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>2.63</v>
@@ -2585,28 +2587,28 @@
         <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2624,10 +2626,10 @@
         <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -2833,34 +2835,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
         <v>2.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.36</v>
@@ -2869,10 +2871,10 @@
         <v>3.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>1.22</v>
@@ -2899,7 +2901,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD17" t="n">
         <v>26</v>
@@ -2914,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>81</v>
@@ -2999,7 +3001,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3123,58 +3125,58 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L19" t="n">
         <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
@@ -3195,10 +3197,10 @@
         <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3210,16 +3212,16 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
@@ -3268,28 +3270,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3298,55 +3300,55 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
         <v>21</v>
       </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -3355,28 +3357,28 @@
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3447,16 +3449,16 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3570,16 +3572,16 @@
         <v>2.63</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3588,10 +3590,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3606,10 +3608,10 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y22" t="n">
         <v>6.5</v>
@@ -3642,7 +3644,7 @@
         <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -3651,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -3699,13 +3701,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3714,13 +3716,13 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -3753,16 +3755,16 @@
         <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
         <v>29</v>
@@ -3789,16 +3791,16 @@
         <v>6.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL23" t="n">
         <v>9.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>34</v>
@@ -3844,10 +3846,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
@@ -3865,7 +3867,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3989,22 +3991,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L25" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4013,82 +4015,82 @@
         <v>9.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.52</v>
       </c>
-      <c r="R25" t="n">
+      <c r="X25" t="n">
         <v>2.37</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.32</v>
       </c>
       <c r="Y25" t="n">
         <v>10.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA25" t="n">
         <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>9.25</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO25" t="n">
         <v>30</v>
@@ -4130,19 +4132,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
@@ -4178,19 +4180,19 @@
         <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -4229,7 +4231,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>34</v>
@@ -4271,13 +4273,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
@@ -4295,10 +4297,10 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.6</v>
@@ -4331,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
@@ -4346,13 +4348,13 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -701,43 +701,43 @@
         <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.91</v>
@@ -752,7 +752,7 @@
         <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>10</v>
@@ -764,10 +764,10 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -851,16 +851,16 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -1404,7 +1404,7 @@
         <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
@@ -1413,10 +1413,10 @@
         <v>2.57</v>
       </c>
       <c r="K7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
@@ -1488,7 +1488,7 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1500,7 +1500,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
         <v>75</v>
@@ -1542,16 +1542,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
@@ -1596,7 +1596,7 @@
         <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z8" t="n">
         <v>6.5</v>
@@ -1605,22 +1605,22 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1647,10 +1647,10 @@
         <v>67</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U9" t="n">
         <v>1.44</v>
@@ -1774,16 +1774,16 @@
         <v>351</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1843,16 +1843,16 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -1867,22 +1867,22 @@
         <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.62</v>
       </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
         <v>7.5</v>
@@ -1891,16 +1891,16 @@
         <v>9.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
@@ -1921,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -1939,10 +1939,10 @@
         <v>1.88</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="11">
@@ -1977,31 +1977,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P11" t="n">
         <v>2.2</v>
@@ -2016,7 +2016,7 @@
         <v>6.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U11" t="n">
         <v>1.67</v>
@@ -2034,13 +2034,13 @@
         <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>34</v>
@@ -2073,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2088,10 +2088,10 @@
         <v>1.78</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="12">
@@ -2126,106 +2126,106 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.57</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
         <v>15</v>
       </c>
-      <c r="AD12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
         <v>13</v>
       </c>
-      <c r="AK12" t="n">
-        <v>19</v>
-      </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2233,10 +2233,10 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13">
@@ -2560,7 +2560,7 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2569,22 +2569,22 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.3</v>
@@ -2593,13 +2593,13 @@
         <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="n">
         <v>7</v>
@@ -2611,25 +2611,25 @@
         <v>9.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -2647,7 +2647,7 @@
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2835,28 +2835,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
@@ -2865,10 +2865,10 @@
         <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="S17" t="n">
         <v>1.91</v>
@@ -2892,10 +2892,10 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -2910,7 +2910,7 @@
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2931,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
@@ -2980,52 +2980,52 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="L18" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3052,13 +3052,13 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
@@ -3073,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>13</v>
@@ -3125,58 +3125,58 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
@@ -3197,10 +3197,10 @@
         <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3212,16 +3212,16 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
         <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
@@ -3270,28 +3270,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3324,7 +3324,7 @@
         <v>2.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
         <v>21</v>
@@ -3348,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -3357,16 +3357,16 @@
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -3375,10 +3375,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3449,16 +3449,16 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3560,22 +3560,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3614,7 +3614,7 @@
         <v>1.91</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3749,16 +3749,16 @@
         <v>2.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>12</v>
@@ -3846,13 +3846,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>2.4</v>
@@ -3867,7 +3867,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3921,10 +3921,10 @@
         <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
@@ -3951,10 +3951,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -4180,10 +4180,10 @@
         <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -4216,7 +4216,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
@@ -4303,10 +4303,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
         <v>2.5</v>
@@ -4321,10 +4321,10 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
@@ -4380,10 +4380,10 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -692,31 +692,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -728,10 +728,10 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.3</v>
@@ -740,10 +740,10 @@
         <v>3.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
         <v>7.5</v>
@@ -767,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -851,16 +851,16 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -996,16 +996,16 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
         <v>3.6</v>
@@ -1020,10 +1020,10 @@
         <v>1.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>2.63</v>
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1136,7 +1136,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1178,13 +1178,13 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>21</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1431,22 +1431,22 @@
         <v>2.27</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.15</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.15</v>
@@ -1455,19 +1455,19 @@
         <v>1.55</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
@@ -1488,22 +1488,22 @@
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1596,7 +1596,7 @@
         <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
         <v>6.5</v>
@@ -1614,13 +1614,13 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1632,19 +1632,19 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>51</v>
       </c>
       <c r="AO8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1705,13 +1705,13 @@
         <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U9" t="n">
         <v>1.44</v>
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
@@ -1846,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -1867,7 +1867,7 @@
         <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U10" t="n">
         <v>1.57</v>
@@ -1885,7 +1885,7 @@
         <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>9.5</v>
@@ -1894,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1915,10 +1915,10 @@
         <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -1977,64 +1977,64 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.67</v>
       </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2046,52 +2046,52 @@
         <v>34</v>
       </c>
       <c r="AD11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI11" t="n">
         <v>451</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12">
@@ -2156,7 +2156,7 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -2548,10 +2548,10 @@
         <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2560,13 +2560,13 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
@@ -2575,10 +2575,10 @@
         <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
         <v>2.5</v>
@@ -2620,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
@@ -2647,15 +2647,15 @@
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="16">
@@ -2853,28 +2853,28 @@
         <v>2.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>1.22</v>
@@ -2889,13 +2889,13 @@
         <v>2.63</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
         <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
@@ -2989,52 +2989,52 @@
         <v>1.44</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="V18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
         <v>41</v>
@@ -3043,16 +3043,16 @@
         <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
         <v>34</v>
       </c>
-      <c r="AD18" t="n">
-        <v>29</v>
-      </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3061,22 +3061,22 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
         <v>11</v>
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -3140,7 +3140,7 @@
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3179,7 +3179,7 @@
         <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
@@ -3221,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
@@ -3270,28 +3270,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3324,7 +3324,7 @@
         <v>2.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>21</v>
@@ -3348,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -3357,16 +3357,16 @@
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3449,31 +3449,31 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
         <v>15</v>
@@ -3488,10 +3488,10 @@
         <v>23</v>
       </c>
       <c r="AD21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
         <v>5.5</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
@@ -3566,7 +3566,7 @@
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
@@ -3617,13 +3617,13 @@
         <v>7</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
@@ -3725,16 +3725,16 @@
         <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3846,16 +3846,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -3900,10 +3900,10 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3945,7 +3945,7 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -4141,58 +4141,58 @@
         <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L26" t="n">
         <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -4204,28 +4204,28 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
@@ -4236,8 +4236,12 @@
       <c r="AO26" t="n">
         <v>34</v>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
     </row>
@@ -4273,7 +4277,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
@@ -4282,43 +4286,43 @@
         <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W27" t="n">
         <v>1.57</v>
@@ -4327,28 +4331,28 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
@@ -4357,10 +4361,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4380,10 +4384,10 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -710,16 +710,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -728,10 +728,10 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.3</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1014,16 +1014,16 @@
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
         <v>2.63</v>
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1136,7 +1136,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1178,13 +1178,13 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>21</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1774,16 +1774,16 @@
         <v>351</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -2569,28 +2569,28 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W15" t="n">
         <v>1.83</v>
@@ -2608,7 +2608,7 @@
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2632,7 +2632,7 @@
         <v>251</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -2652,10 +2652,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="16">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -2847,34 +2847,34 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
         <v>2.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>1.22</v>
@@ -2883,19 +2883,19 @@
         <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -2904,13 +2904,13 @@
         <v>26</v>
       </c>
       <c r="AD17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" t="n">
         <v>26</v>
       </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2925,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>9</v>
@@ -2980,28 +2980,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3010,10 +3010,10 @@
         <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.83</v>
@@ -3022,67 +3022,67 @@
         <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="n">
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3125,22 +3125,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3179,10 +3179,10 @@
         <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3191,10 +3191,10 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3212,19 +3212,19 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
@@ -3288,10 +3288,10 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3375,10 +3375,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3419,109 +3419,109 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="X21" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>5.5</v>
       </c>
       <c r="AG21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>12</v>
       </c>
-      <c r="AH21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>13</v>
-      </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
         <v>23</v>
       </c>
-      <c r="AN21" t="n">
-        <v>21</v>
-      </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3566,7 +3566,7 @@
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
@@ -3578,10 +3578,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3590,10 +3590,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.2</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3755,19 +3755,19 @@
         <v>1.73</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3791,16 +3791,16 @@
         <v>6.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>34</v>
@@ -3852,13 +3852,13 @@
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>2.38</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
         <v>6</v>
@@ -3867,7 +3867,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3888,10 +3888,10 @@
         <v>1.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
         <v>2.25</v>
@@ -3900,10 +3900,10 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3945,7 +3945,7 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -4147,7 +4147,7 @@
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -4156,37 +4156,37 @@
         <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.57</v>
       </c>
-      <c r="S26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -4204,7 +4204,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -4213,7 +4213,7 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI26" t="n">
         <v>351</v>
@@ -4228,19 +4228,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.3</v>
@@ -4295,28 +4295,28 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U27" t="n">
         <v>1.33</v>
@@ -4325,25 +4325,25 @@
         <v>3.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
         <v>21</v>
@@ -4355,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
@@ -4364,7 +4364,7 @@
         <v>151</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4376,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -698,58 +698,58 @@
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.8</v>
       </c>
-      <c r="X2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -761,25 +761,25 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>8.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -791,10 +791,10 @@
         <v>67</v>
       </c>
       <c r="AN2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>4.33</v>
@@ -881,10 +881,10 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y3" t="n">
         <v>6</v>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1136,7 +1136,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1178,13 +1178,13 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>21</v>
@@ -1206,10 +1206,10 @@
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1687,52 +1687,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.91</v>
@@ -1741,25 +1741,25 @@
         <v>1.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>6.5</v>
@@ -1777,16 +1777,16 @@
         <v>7.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
       </c>
       <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
         <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -2545,13 +2545,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.83</v>
@@ -2560,7 +2560,7 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2575,16 +2575,16 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2599,16 +2599,16 @@
         <v>1.83</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2647,15 +2647,15 @@
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="16">
@@ -2835,109 +2835,109 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.33</v>
-      </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.25</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="T17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
         <v>26</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V17" t="n">
-        <v>4</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>23</v>
-      </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>9</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2980,28 +2980,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
         <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
         <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>1.1</v>
@@ -3028,10 +3028,10 @@
         <v>4.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -3055,19 +3055,19 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>9.5</v>
@@ -3125,22 +3125,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3149,10 +3149,10 @@
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.53</v>
@@ -3161,10 +3161,10 @@
         <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3191,10 +3191,10 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
         <v>21</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3212,19 +3212,19 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
@@ -3270,22 +3270,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3294,16 +3294,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
@@ -3324,16 +3324,16 @@
         <v>2.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
         <v>21</v>
@@ -3348,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -3357,16 +3357,16 @@
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL20" t="n">
         <v>10</v>
       </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>11</v>
-      </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -3375,10 +3375,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="AR20" t="n">
         <v>2.05</v>
@@ -3560,19 +3560,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>4.33</v>
@@ -3581,25 +3581,25 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3608,13 +3608,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z22" t="n">
         <v>9.5</v>
@@ -3623,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
@@ -3632,10 +3632,10 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3644,10 +3644,10 @@
         <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -3659,7 +3659,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>41</v>
@@ -3846,28 +3846,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3900,10 +3900,10 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3933,19 +3933,19 @@
         <v>351</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN24" t="n">
         <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>41</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.73</v>
@@ -1008,10 +1008,10 @@
         <v>1.91</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>9</v>
@@ -1035,22 +1035,22 @@
         <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="n">
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
@@ -1139,10 +1139,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-10.xlsx
@@ -1121,79 +1121,79 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.1</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="W5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X5" t="n">
         <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1206,10 +1206,10 @@
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
